--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.3670583612801</v>
+        <v>60.28181966666667</v>
       </c>
       <c r="H2">
-        <v>48.3670583612801</v>
+        <v>180.845459</v>
       </c>
       <c r="I2">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="J2">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.718740829948282</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N2">
-        <v>0.718740829948282</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O2">
-        <v>0.03041796924217072</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P2">
-        <v>0.03041796924217072</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q2">
-        <v>34.76337966874345</v>
+        <v>83.06085246108813</v>
       </c>
       <c r="R2">
-        <v>34.76337966874345</v>
+        <v>747.5476721497931</v>
       </c>
       <c r="S2">
-        <v>0.00580739775870169</v>
+        <v>0.01088667662287786</v>
       </c>
       <c r="T2">
-        <v>0.00580739775870169</v>
+        <v>0.01088667662287786</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.3670583612801</v>
+        <v>60.28181966666667</v>
       </c>
       <c r="H3">
-        <v>48.3670583612801</v>
+        <v>180.845459</v>
       </c>
       <c r="I3">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="J3">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.0880808476034</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N3">
-        <v>12.0880808476034</v>
+        <v>36.503158</v>
       </c>
       <c r="O3">
-        <v>0.5115820002124147</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P3">
-        <v>0.5115820002124147</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q3">
-        <v>584.6649118319059</v>
+        <v>733.4922626066135</v>
       </c>
       <c r="R3">
-        <v>584.6649118319059</v>
+        <v>6601.430363459522</v>
       </c>
       <c r="S3">
-        <v>0.0976712198560198</v>
+        <v>0.09613786557418387</v>
       </c>
       <c r="T3">
-        <v>0.0976712198560198</v>
+        <v>0.09613786557418386</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.3670583612801</v>
+        <v>60.28181966666667</v>
       </c>
       <c r="H4">
-        <v>48.3670583612801</v>
+        <v>180.845459</v>
       </c>
       <c r="I4">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="J4">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.1939911163792</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N4">
-        <v>1.1939911163792</v>
+        <v>7.355213</v>
       </c>
       <c r="O4">
-        <v>0.05053112824557491</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P4">
-        <v>0.05053112824557491</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q4">
-        <v>57.74983800876275</v>
+        <v>147.7952078919741</v>
       </c>
       <c r="R4">
-        <v>57.74983800876275</v>
+        <v>1330.156871027767</v>
       </c>
       <c r="S4">
-        <v>0.009647401461343496</v>
+        <v>0.01937132339792327</v>
       </c>
       <c r="T4">
-        <v>0.009647401461343496</v>
+        <v>0.01937132339792326</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.3670583612801</v>
+        <v>60.28181966666667</v>
       </c>
       <c r="H5">
-        <v>48.3670583612801</v>
+        <v>180.845459</v>
       </c>
       <c r="I5">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="J5">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.6217935744948609</v>
+        <v>0.905288</v>
       </c>
       <c r="N5">
-        <v>0.6217935744948609</v>
+        <v>2.715864</v>
       </c>
       <c r="O5">
-        <v>0.02631504575206202</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P5">
-        <v>0.02631504575206202</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q5">
-        <v>30.07432610626191</v>
+        <v>54.57240796239734</v>
       </c>
       <c r="R5">
-        <v>30.07432610626191</v>
+        <v>491.151671661576</v>
       </c>
       <c r="S5">
-        <v>0.005024067731279997</v>
+        <v>0.007152733693609888</v>
       </c>
       <c r="T5">
-        <v>0.005024067731279997</v>
+        <v>0.007152733693609886</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.3670583612801</v>
+        <v>60.28181966666667</v>
       </c>
       <c r="H6">
-        <v>48.3670583612801</v>
+        <v>180.845459</v>
       </c>
       <c r="I6">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="J6">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.00621724652609</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N6">
-        <v>9.00621724652609</v>
+        <v>2.446034</v>
       </c>
       <c r="O6">
-        <v>0.3811538565477776</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P6">
-        <v>0.3811538565477776</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q6">
-        <v>435.6042351770948</v>
+        <v>49.15046016217845</v>
       </c>
       <c r="R6">
-        <v>435.6042351770948</v>
+        <v>442.354141459606</v>
       </c>
       <c r="S6">
-        <v>0.07276988265105187</v>
+        <v>0.006442086130791296</v>
       </c>
       <c r="T6">
-        <v>0.07276988265105187</v>
+        <v>0.006442086130791294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.8321817647457</v>
+        <v>60.28181966666667</v>
       </c>
       <c r="H7">
-        <v>45.8321817647457</v>
+        <v>180.845459</v>
       </c>
       <c r="I7">
-        <v>0.180914015431253</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="J7">
-        <v>0.180914015431253</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.718740829948282</v>
+        <v>9.939698</v>
       </c>
       <c r="N7">
-        <v>0.718740829948282</v>
+        <v>29.819094</v>
       </c>
       <c r="O7">
-        <v>0.03041796924217072</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P7">
-        <v>0.03041796924217072</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q7">
-        <v>32.94146035993384</v>
+        <v>599.1830823771273</v>
       </c>
       <c r="R7">
-        <v>32.94146035993384</v>
+        <v>5392.647741394146</v>
       </c>
       <c r="S7">
-        <v>0.005503036956865453</v>
+        <v>0.07853413807418945</v>
       </c>
       <c r="T7">
-        <v>0.005503036956865453</v>
+        <v>0.07853413807418944</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.8321817647457</v>
+        <v>45.85265733333333</v>
       </c>
       <c r="H8">
-        <v>45.8321817647457</v>
+        <v>137.557972</v>
       </c>
       <c r="I8">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="J8">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.0880808476034</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N8">
-        <v>12.0880808476034</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O8">
-        <v>0.5115820002124147</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P8">
-        <v>0.5115820002124147</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q8">
-        <v>554.0231185943003</v>
+        <v>63.1792607916049</v>
       </c>
       <c r="R8">
-        <v>554.0231185943003</v>
+        <v>568.6133471244441</v>
       </c>
       <c r="S8">
-        <v>0.09255235388078006</v>
+        <v>0.00828082256720025</v>
       </c>
       <c r="T8">
-        <v>0.09255235388078006</v>
+        <v>0.008280822567200249</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.8321817647457</v>
+        <v>45.85265733333333</v>
       </c>
       <c r="H9">
-        <v>45.8321817647457</v>
+        <v>137.557972</v>
       </c>
       <c r="I9">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="J9">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.1939911163792</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N9">
-        <v>1.1939911163792</v>
+        <v>36.503158</v>
       </c>
       <c r="O9">
-        <v>0.05053112824557491</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P9">
-        <v>0.05053112824557491</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q9">
-        <v>54.72321787138313</v>
+        <v>557.9222651195084</v>
       </c>
       <c r="R9">
-        <v>54.72321787138313</v>
+        <v>5021.300386075576</v>
       </c>
       <c r="S9">
-        <v>0.009141789315178563</v>
+        <v>0.07312613705602278</v>
       </c>
       <c r="T9">
-        <v>0.009141789315178563</v>
+        <v>0.07312613705602278</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.8321817647457</v>
+        <v>45.85265733333333</v>
       </c>
       <c r="H10">
-        <v>45.8321817647457</v>
+        <v>137.557972</v>
       </c>
       <c r="I10">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="J10">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6217935744948609</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N10">
-        <v>0.6217935744948609</v>
+        <v>7.355213</v>
       </c>
       <c r="O10">
-        <v>0.02631504575206202</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P10">
-        <v>0.02631504575206202</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q10">
-        <v>28.49815612639941</v>
+        <v>112.4186871008929</v>
       </c>
       <c r="R10">
-        <v>28.49815612639941</v>
+        <v>1011.768183908036</v>
       </c>
       <c r="S10">
-        <v>0.004760760593262676</v>
+        <v>0.01473456937381255</v>
       </c>
       <c r="T10">
-        <v>0.004760760593262676</v>
+        <v>0.01473456937381255</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.8321817647457</v>
+        <v>45.85265733333333</v>
       </c>
       <c r="H11">
-        <v>45.8321817647457</v>
+        <v>137.557972</v>
       </c>
       <c r="I11">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="J11">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>9.00621724652609</v>
+        <v>0.905288</v>
       </c>
       <c r="N11">
-        <v>9.00621724652609</v>
+        <v>2.715864</v>
       </c>
       <c r="O11">
-        <v>0.3811538565477776</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P11">
-        <v>0.3811538565477776</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q11">
-        <v>412.7745858555713</v>
+        <v>41.50986045197867</v>
       </c>
       <c r="R11">
-        <v>412.7745858555713</v>
+        <v>373.588744067808</v>
       </c>
       <c r="S11">
-        <v>0.06895607468516622</v>
+        <v>0.005440642781907206</v>
       </c>
       <c r="T11">
-        <v>0.06895607468516622</v>
+        <v>0.005440642781907206</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>46.1711736885905</v>
+        <v>45.85265733333333</v>
       </c>
       <c r="H12">
-        <v>46.1711736885905</v>
+        <v>137.557972</v>
       </c>
       <c r="I12">
-        <v>0.1822521230181081</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="J12">
-        <v>0.1822521230181081</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.718740829948282</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N12">
-        <v>0.718740829948282</v>
+        <v>2.446034</v>
       </c>
       <c r="O12">
-        <v>0.03041796924217072</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P12">
-        <v>0.03041796924217072</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q12">
-        <v>33.18510769662382</v>
+        <v>37.38571960922756</v>
       </c>
       <c r="R12">
-        <v>33.18510769662382</v>
+        <v>336.471476483048</v>
       </c>
       <c r="S12">
-        <v>0.005543739472285127</v>
+        <v>0.004900097069072535</v>
       </c>
       <c r="T12">
-        <v>0.005543739472285127</v>
+        <v>0.004900097069072535</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>46.1711736885905</v>
+        <v>45.85265733333333</v>
       </c>
       <c r="H13">
-        <v>46.1711736885905</v>
+        <v>137.557972</v>
       </c>
       <c r="I13">
-        <v>0.1822521230181081</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="J13">
-        <v>0.1822521230181081</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.0880808476034</v>
+        <v>9.939698</v>
       </c>
       <c r="N13">
-        <v>12.0880808476034</v>
+        <v>29.819094</v>
       </c>
       <c r="O13">
-        <v>0.5115820002124147</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P13">
-        <v>0.5115820002124147</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q13">
-        <v>558.1208803764209</v>
+        <v>455.7615663908186</v>
       </c>
       <c r="R13">
-        <v>558.1208803764209</v>
+        <v>4101.854097517368</v>
       </c>
       <c r="S13">
-        <v>0.09323690563656283</v>
+        <v>0.05973606871850448</v>
       </c>
       <c r="T13">
-        <v>0.09323690563656283</v>
+        <v>0.05973606871850449</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>46.1711736885905</v>
+        <v>49.248258</v>
       </c>
       <c r="H14">
-        <v>46.1711736885905</v>
+        <v>147.744774</v>
       </c>
       <c r="I14">
-        <v>0.1822521230181081</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="J14">
-        <v>0.1822521230181081</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.1939911163792</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N14">
-        <v>1.1939911163792</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O14">
-        <v>0.05053112824557491</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P14">
-        <v>0.05053112824557491</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q14">
-        <v>55.12797121697812</v>
+        <v>67.85797632392202</v>
       </c>
       <c r="R14">
-        <v>55.12797121697812</v>
+        <v>610.7217869152981</v>
       </c>
       <c r="S14">
-        <v>0.009209405401256317</v>
+        <v>0.0088940556547686</v>
       </c>
       <c r="T14">
-        <v>0.009209405401256317</v>
+        <v>0.008894055654768598</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>46.1711736885905</v>
+        <v>49.248258</v>
       </c>
       <c r="H15">
-        <v>46.1711736885905</v>
+        <v>147.744774</v>
       </c>
       <c r="I15">
-        <v>0.1822521230181081</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="J15">
-        <v>0.1822521230181081</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6217935744948609</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N15">
-        <v>0.6217935744948609</v>
+        <v>36.503158</v>
       </c>
       <c r="O15">
-        <v>0.02631504575206202</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P15">
-        <v>0.02631504575206202</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q15">
-        <v>28.70893912645176</v>
+        <v>599.238980999588</v>
       </c>
       <c r="R15">
-        <v>28.70893912645176</v>
+        <v>5393.150828996292</v>
       </c>
       <c r="S15">
-        <v>0.00479597295563195</v>
+        <v>0.078541464633072</v>
       </c>
       <c r="T15">
-        <v>0.00479597295563195</v>
+        <v>0.07854146463307202</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>46.1711736885905</v>
+        <v>49.248258</v>
       </c>
       <c r="H16">
-        <v>46.1711736885905</v>
+        <v>147.744774</v>
       </c>
       <c r="I16">
-        <v>0.1822521230181081</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="J16">
-        <v>0.1822521230181081</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.00621724652609</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N16">
-        <v>9.00621724652609</v>
+        <v>7.355213</v>
       </c>
       <c r="O16">
-        <v>0.3811538565477776</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P16">
-        <v>0.3811538565477776</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q16">
-        <v>415.8276207665353</v>
+        <v>120.743809156318</v>
       </c>
       <c r="R16">
-        <v>415.8276207665353</v>
+        <v>1086.694282406862</v>
       </c>
       <c r="S16">
-        <v>0.06946609955237189</v>
+        <v>0.01582573216564473</v>
       </c>
       <c r="T16">
-        <v>0.06946609955237189</v>
+        <v>0.01582573216564472</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>69.6726665520366</v>
+        <v>49.248258</v>
       </c>
       <c r="H17">
-        <v>69.6726665520366</v>
+        <v>147.744774</v>
       </c>
       <c r="I17">
-        <v>0.2750198962037484</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="J17">
-        <v>0.2750198962037484</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.718740829948282</v>
+        <v>0.905288</v>
       </c>
       <c r="N17">
-        <v>0.718740829948282</v>
+        <v>2.715864</v>
       </c>
       <c r="O17">
-        <v>0.03041796924217072</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P17">
-        <v>0.03041796924217072</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q17">
-        <v>50.0765901823207</v>
+        <v>44.583856988304</v>
       </c>
       <c r="R17">
-        <v>50.0765901823207</v>
+        <v>401.254712894736</v>
       </c>
       <c r="S17">
-        <v>0.008365546743710605</v>
+        <v>0.005843547462502655</v>
       </c>
       <c r="T17">
-        <v>0.008365546743710605</v>
+        <v>0.005843547462502655</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>69.6726665520366</v>
+        <v>49.248258</v>
       </c>
       <c r="H18">
-        <v>69.6726665520366</v>
+        <v>147.744774</v>
       </c>
       <c r="I18">
-        <v>0.2750198962037484</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="J18">
-        <v>0.2750198962037484</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>12.0880808476034</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N18">
-        <v>12.0880808476034</v>
+        <v>2.446034</v>
       </c>
       <c r="O18">
-        <v>0.5115820002124147</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P18">
-        <v>0.5115820002124147</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q18">
-        <v>842.2088261491317</v>
+        <v>40.154304502924</v>
       </c>
       <c r="R18">
-        <v>842.2088261491317</v>
+        <v>361.388740526316</v>
       </c>
       <c r="S18">
-        <v>0.1406952285981243</v>
+        <v>0.005262971847594438</v>
       </c>
       <c r="T18">
-        <v>0.1406952285981243</v>
+        <v>0.005262971847594438</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>69.6726665520366</v>
+        <v>49.248258</v>
       </c>
       <c r="H19">
-        <v>69.6726665520366</v>
+        <v>147.744774</v>
       </c>
       <c r="I19">
-        <v>0.2750198962037484</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="J19">
-        <v>0.2750198962037484</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.1939911163792</v>
+        <v>9.939698</v>
       </c>
       <c r="N19">
-        <v>1.1939911163792</v>
+        <v>29.819094</v>
       </c>
       <c r="O19">
-        <v>0.05053112824557491</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P19">
-        <v>0.05053112824557491</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q19">
-        <v>83.18854491758194</v>
+        <v>489.512811546084</v>
       </c>
       <c r="R19">
-        <v>83.18854491758194</v>
+        <v>4405.615303914756</v>
       </c>
       <c r="S19">
-        <v>0.01389706564515631</v>
+        <v>0.06415980000391336</v>
       </c>
       <c r="T19">
-        <v>0.01389706564515631</v>
+        <v>0.06415980000391336</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>69.6726665520366</v>
+        <v>75.29432433333334</v>
       </c>
       <c r="H20">
-        <v>69.6726665520366</v>
+        <v>225.882973</v>
       </c>
       <c r="I20">
-        <v>0.2750198962037484</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="J20">
-        <v>0.2750198962037484</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6217935744948609</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N20">
-        <v>0.6217935744948609</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O20">
-        <v>0.02631504575206202</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P20">
-        <v>0.02631504575206202</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q20">
-        <v>43.32201637997938</v>
+        <v>103.7462173370079</v>
       </c>
       <c r="R20">
-        <v>43.32201637997938</v>
+        <v>933.7159560330711</v>
       </c>
       <c r="S20">
-        <v>0.007237161151328988</v>
+        <v>0.01359788017494678</v>
       </c>
       <c r="T20">
-        <v>0.007237161151328988</v>
+        <v>0.01359788017494678</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>69.6726665520366</v>
+        <v>75.29432433333334</v>
       </c>
       <c r="H21">
-        <v>69.6726665520366</v>
+        <v>225.882973</v>
       </c>
       <c r="I21">
-        <v>0.2750198962037484</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="J21">
-        <v>0.2750198962037484</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.00621724652609</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N21">
-        <v>9.00621724652609</v>
+        <v>36.503158</v>
       </c>
       <c r="O21">
-        <v>0.3811538565477776</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P21">
-        <v>0.3811538565477776</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q21">
-        <v>627.4871711124135</v>
+        <v>916.1602058809704</v>
       </c>
       <c r="R21">
-        <v>627.4871711124135</v>
+        <v>8245.441852928734</v>
       </c>
       <c r="S21">
-        <v>0.1048248940654282</v>
+        <v>0.1200799125056881</v>
       </c>
       <c r="T21">
-        <v>0.1048248940654282</v>
+        <v>0.1200799125056881</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>31.91277768068</v>
+        <v>75.29432433333334</v>
       </c>
       <c r="H22">
-        <v>31.91277768068</v>
+        <v>225.882973</v>
       </c>
       <c r="I22">
-        <v>0.1259697559983423</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="J22">
-        <v>0.1259697559983423</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.718740829948282</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N22">
-        <v>0.718740829948282</v>
+        <v>7.355213</v>
       </c>
       <c r="O22">
-        <v>0.03041796924217072</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P22">
-        <v>0.03041796924217072</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q22">
-        <v>22.93701631616695</v>
+        <v>184.6019310542499</v>
       </c>
       <c r="R22">
-        <v>22.93701631616695</v>
+        <v>1661.417379488249</v>
       </c>
       <c r="S22">
-        <v>0.003831744163401326</v>
+        <v>0.02419553216466093</v>
       </c>
       <c r="T22">
-        <v>0.003831744163401326</v>
+        <v>0.02419553216466092</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>31.91277768068</v>
+        <v>75.29432433333334</v>
       </c>
       <c r="H23">
-        <v>31.91277768068</v>
+        <v>225.882973</v>
       </c>
       <c r="I23">
-        <v>0.1259697559983423</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="J23">
-        <v>0.1259697559983423</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>12.0880808476034</v>
+        <v>0.905288</v>
       </c>
       <c r="N23">
-        <v>12.0880808476034</v>
+        <v>2.715864</v>
       </c>
       <c r="O23">
-        <v>0.5115820002124147</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P23">
-        <v>0.5115820002124147</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q23">
-        <v>385.7642366756532</v>
+        <v>68.16304828707467</v>
       </c>
       <c r="R23">
-        <v>385.7642366756532</v>
+        <v>613.4674345836719</v>
       </c>
       <c r="S23">
-        <v>0.06444385973990177</v>
+        <v>0.008934041035500219</v>
       </c>
       <c r="T23">
-        <v>0.06444385973990177</v>
+        <v>0.008934041035500218</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>31.91277768068</v>
+        <v>75.29432433333334</v>
       </c>
       <c r="H24">
-        <v>31.91277768068</v>
+        <v>225.882973</v>
       </c>
       <c r="I24">
-        <v>0.1259697559983423</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="J24">
-        <v>0.1259697559983423</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.1939911163792</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N24">
-        <v>1.1939911163792</v>
+        <v>2.446034</v>
       </c>
       <c r="O24">
-        <v>0.05053112824557491</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P24">
-        <v>0.05053112824557491</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q24">
-        <v>38.10357304971633</v>
+        <v>61.39082577545356</v>
       </c>
       <c r="R24">
-        <v>38.10357304971633</v>
+        <v>552.5174319790819</v>
       </c>
       <c r="S24">
-        <v>0.006365393895416013</v>
+        <v>0.008046414743237786</v>
       </c>
       <c r="T24">
-        <v>0.006365393895416013</v>
+        <v>0.008046414743237784</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>31.91277768068</v>
+        <v>75.29432433333334</v>
       </c>
       <c r="H25">
-        <v>31.91277768068</v>
+        <v>225.882973</v>
       </c>
       <c r="I25">
-        <v>0.1259697559983423</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="J25">
-        <v>0.1259697559983423</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.6217935744948609</v>
+        <v>9.939698</v>
       </c>
       <c r="N25">
-        <v>0.6217935744948609</v>
+        <v>29.819094</v>
       </c>
       <c r="O25">
-        <v>0.02631504575206202</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P25">
-        <v>0.02631504575206202</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q25">
-        <v>19.84316010612984</v>
+        <v>748.4028449873847</v>
       </c>
       <c r="R25">
-        <v>19.84316010612984</v>
+        <v>6735.625604886462</v>
       </c>
       <c r="S25">
-        <v>0.003314899892472466</v>
+        <v>0.09809217598430496</v>
       </c>
       <c r="T25">
-        <v>0.003314899892472466</v>
+        <v>0.09809217598430493</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>31.91277768068</v>
+        <v>32.431974</v>
       </c>
       <c r="H26">
-        <v>31.91277768068</v>
+        <v>97.295922</v>
       </c>
       <c r="I26">
-        <v>0.1259697559983423</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="J26">
-        <v>0.1259697559983423</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.00621724652609</v>
+        <v>1.377875666666667</v>
       </c>
       <c r="N26">
-        <v>9.00621724652609</v>
+        <v>4.133627000000001</v>
       </c>
       <c r="O26">
-        <v>0.3811538565477776</v>
+        <v>0.0498189471055581</v>
       </c>
       <c r="P26">
-        <v>0.3811538565477776</v>
+        <v>0.04981894710555809</v>
       </c>
       <c r="Q26">
-        <v>287.4134087322931</v>
+        <v>44.68722779656601</v>
       </c>
       <c r="R26">
-        <v>287.4134087322931</v>
+        <v>402.1850501690941</v>
       </c>
       <c r="S26">
-        <v>0.0480138583071507</v>
+        <v>0.005857096138304187</v>
       </c>
       <c r="T26">
-        <v>0.0480138583071507</v>
+        <v>0.005857096138304185</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>11.3809641745023</v>
+        <v>32.431974</v>
       </c>
       <c r="H27">
-        <v>11.3809641745023</v>
+        <v>97.295922</v>
       </c>
       <c r="I27">
-        <v>0.04492423989015114</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="J27">
-        <v>0.04492423989015114</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.718740829948282</v>
+        <v>12.16771933333333</v>
       </c>
       <c r="N27">
-        <v>0.718740829948282</v>
+        <v>36.503158</v>
       </c>
       <c r="O27">
-        <v>0.03041796924217072</v>
+        <v>0.4399402504357141</v>
       </c>
       <c r="P27">
-        <v>0.03041796924217072</v>
+        <v>0.439940250435714</v>
       </c>
       <c r="Q27">
-        <v>8.179963636393447</v>
+        <v>394.623157057964</v>
       </c>
       <c r="R27">
-        <v>8.179963636393447</v>
+        <v>3551.608413521676</v>
       </c>
       <c r="S27">
-        <v>0.001366504147206516</v>
+        <v>0.05172273786621471</v>
       </c>
       <c r="T27">
-        <v>0.001366504147206516</v>
+        <v>0.0517227378662147</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>11.3809641745023</v>
+        <v>32.431974</v>
       </c>
       <c r="H28">
-        <v>11.3809641745023</v>
+        <v>97.295922</v>
       </c>
       <c r="I28">
-        <v>0.04492423989015114</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="J28">
-        <v>0.04492423989015114</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.0880808476034</v>
+        <v>2.451737666666667</v>
       </c>
       <c r="N28">
-        <v>12.0880808476034</v>
+        <v>7.355213</v>
       </c>
       <c r="O28">
-        <v>0.5115820002124147</v>
+        <v>0.08864587138537494</v>
       </c>
       <c r="P28">
-        <v>0.5115820002124147</v>
+        <v>0.08864587138537491</v>
       </c>
       <c r="Q28">
-        <v>137.5740150650617</v>
+        <v>79.51469226015402</v>
       </c>
       <c r="R28">
-        <v>137.5740150650617</v>
+        <v>715.632230341386</v>
       </c>
       <c r="S28">
-        <v>0.02298243250102587</v>
+        <v>0.01042188607213586</v>
       </c>
       <c r="T28">
-        <v>0.02298243250102587</v>
+        <v>0.01042188607213586</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,60 +2208,60 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>11.3809641745023</v>
+        <v>32.431974</v>
       </c>
       <c r="H29">
-        <v>11.3809641745023</v>
+        <v>97.295922</v>
       </c>
       <c r="I29">
-        <v>0.04492423989015114</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="J29">
-        <v>0.04492423989015114</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>1.1939911163792</v>
+        <v>0.905288</v>
       </c>
       <c r="N29">
-        <v>1.1939911163792</v>
+        <v>2.715864</v>
       </c>
       <c r="O29">
-        <v>0.05053112824557491</v>
+        <v>0.0327319046836808</v>
       </c>
       <c r="P29">
-        <v>0.05053112824557491</v>
+        <v>0.03273190468368079</v>
       </c>
       <c r="Q29">
-        <v>13.58877012018568</v>
+        <v>29.360276878512</v>
       </c>
       <c r="R29">
-        <v>13.58877012018568</v>
+        <v>264.242491906608</v>
       </c>
       <c r="S29">
-        <v>0.0022700725272242</v>
+        <v>0.003848212851948024</v>
       </c>
       <c r="T29">
-        <v>0.0022700725272242</v>
+        <v>0.003848212851948024</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>11.3809641745023</v>
+        <v>32.431974</v>
       </c>
       <c r="H30">
-        <v>11.3809641745023</v>
+        <v>97.295922</v>
       </c>
       <c r="I30">
-        <v>0.04492423989015114</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="J30">
-        <v>0.04492423989015114</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.6217935744948609</v>
+        <v>0.8153446666666667</v>
       </c>
       <c r="N30">
-        <v>0.6217935744948609</v>
+        <v>2.446034</v>
       </c>
       <c r="O30">
-        <v>0.02631504575206202</v>
+        <v>0.02947988254973095</v>
       </c>
       <c r="P30">
-        <v>0.02631504575206202</v>
+        <v>0.02947988254973094</v>
       </c>
       <c r="Q30">
-        <v>7.076610395261739</v>
+        <v>26.443237030372</v>
       </c>
       <c r="R30">
-        <v>7.076610395261739</v>
+        <v>237.989133273348</v>
       </c>
       <c r="S30">
-        <v>0.001182183428085937</v>
+        <v>0.003465880277915917</v>
       </c>
       <c r="T30">
-        <v>0.001182183428085937</v>
+        <v>0.003465880277915917</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>11.3809641745023</v>
+        <v>32.431974</v>
       </c>
       <c r="H31">
-        <v>11.3809641745023</v>
+        <v>97.295922</v>
       </c>
       <c r="I31">
-        <v>0.04492423989015114</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="J31">
-        <v>0.04492423989015114</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>9.00621724652609</v>
+        <v>9.939698</v>
       </c>
       <c r="N31">
-        <v>9.00621724652609</v>
+        <v>29.819094</v>
       </c>
       <c r="O31">
-        <v>0.3811538565477776</v>
+        <v>0.3593831438399412</v>
       </c>
       <c r="P31">
-        <v>0.3811538565477776</v>
+        <v>0.3593831438399411</v>
       </c>
       <c r="Q31">
-        <v>102.4994358304982</v>
+        <v>322.364027103852</v>
       </c>
       <c r="R31">
-        <v>102.4994358304982</v>
+        <v>2901.276243934668</v>
       </c>
       <c r="S31">
-        <v>0.01712304728660861</v>
+        <v>0.04225182879711437</v>
       </c>
       <c r="T31">
-        <v>0.01712304728660861</v>
+        <v>0.04225182879711437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>12.74896166666667</v>
+      </c>
+      <c r="H32">
+        <v>38.246885</v>
+      </c>
+      <c r="I32">
+        <v>0.04621566856043692</v>
+      </c>
+      <c r="J32">
+        <v>0.04621566856043693</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.377875666666667</v>
+      </c>
+      <c r="N32">
+        <v>4.133627000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.0498189471055581</v>
+      </c>
+      <c r="P32">
+        <v>0.04981894710555809</v>
+      </c>
+      <c r="Q32">
+        <v>17.56648405576611</v>
+      </c>
+      <c r="R32">
+        <v>158.098356501895</v>
+      </c>
+      <c r="S32">
+        <v>0.002302415947460411</v>
+      </c>
+      <c r="T32">
+        <v>0.002302415947460411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>12.74896166666667</v>
+      </c>
+      <c r="H33">
+        <v>38.246885</v>
+      </c>
+      <c r="I33">
+        <v>0.04621566856043692</v>
+      </c>
+      <c r="J33">
+        <v>0.04621566856043693</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>12.16771933333333</v>
+      </c>
+      <c r="N33">
+        <v>36.503158</v>
+      </c>
+      <c r="O33">
+        <v>0.4399402504357141</v>
+      </c>
+      <c r="P33">
+        <v>0.439940250435714</v>
+      </c>
+      <c r="Q33">
+        <v>155.1257873514255</v>
+      </c>
+      <c r="R33">
+        <v>1396.13208616283</v>
+      </c>
+      <c r="S33">
+        <v>0.02033213280053257</v>
+      </c>
+      <c r="T33">
+        <v>0.02033213280053258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>12.74896166666667</v>
+      </c>
+      <c r="H34">
+        <v>38.246885</v>
+      </c>
+      <c r="I34">
+        <v>0.04621566856043692</v>
+      </c>
+      <c r="J34">
+        <v>0.04621566856043693</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2.451737666666667</v>
+      </c>
+      <c r="N34">
+        <v>7.355213</v>
+      </c>
+      <c r="O34">
+        <v>0.08864587138537494</v>
+      </c>
+      <c r="P34">
+        <v>0.08864587138537491</v>
+      </c>
+      <c r="Q34">
+        <v>31.25710952905611</v>
+      </c>
+      <c r="R34">
+        <v>281.313985761505</v>
+      </c>
+      <c r="S34">
+        <v>0.004096828211197607</v>
+      </c>
+      <c r="T34">
+        <v>0.004096828211197607</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>12.74896166666667</v>
+      </c>
+      <c r="H35">
+        <v>38.246885</v>
+      </c>
+      <c r="I35">
+        <v>0.04621566856043692</v>
+      </c>
+      <c r="J35">
+        <v>0.04621566856043693</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.905288</v>
+      </c>
+      <c r="N35">
+        <v>2.715864</v>
+      </c>
+      <c r="O35">
+        <v>0.0327319046836808</v>
+      </c>
+      <c r="P35">
+        <v>0.03273190468368079</v>
+      </c>
+      <c r="Q35">
+        <v>11.54148200929333</v>
+      </c>
+      <c r="R35">
+        <v>103.87333808364</v>
+      </c>
+      <c r="S35">
+        <v>0.001512726858212805</v>
+      </c>
+      <c r="T35">
+        <v>0.001512726858212805</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>12.74896166666667</v>
+      </c>
+      <c r="H36">
+        <v>38.246885</v>
+      </c>
+      <c r="I36">
+        <v>0.04621566856043692</v>
+      </c>
+      <c r="J36">
+        <v>0.04621566856043693</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.8153446666666667</v>
+      </c>
+      <c r="N36">
+        <v>2.446034</v>
+      </c>
+      <c r="O36">
+        <v>0.02947988254973095</v>
+      </c>
+      <c r="P36">
+        <v>0.02947988254973094</v>
+      </c>
+      <c r="Q36">
+        <v>10.39479790045444</v>
+      </c>
+      <c r="R36">
+        <v>93.55318110409</v>
+      </c>
+      <c r="S36">
+        <v>0.001362432481118973</v>
+      </c>
+      <c r="T36">
+        <v>0.001362432481118973</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>12.74896166666667</v>
+      </c>
+      <c r="H37">
+        <v>38.246885</v>
+      </c>
+      <c r="I37">
+        <v>0.04621566856043692</v>
+      </c>
+      <c r="J37">
+        <v>0.04621566856043693</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>9.939698</v>
+      </c>
+      <c r="N37">
+        <v>29.819094</v>
+      </c>
+      <c r="O37">
+        <v>0.3593831438399412</v>
+      </c>
+      <c r="P37">
+        <v>0.3593831438399411</v>
+      </c>
+      <c r="Q37">
+        <v>126.7208287802433</v>
+      </c>
+      <c r="R37">
+        <v>1140.48745902219</v>
+      </c>
+      <c r="S37">
+        <v>0.01660913226191455</v>
+      </c>
+      <c r="T37">
+        <v>0.01660913226191455</v>
       </c>
     </row>
   </sheetData>
